--- a/DOC/装备定义表.xlsx
+++ b/DOC/装备定义表.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="10480"/>
+    <workbookView windowWidth="21500" windowHeight="10920" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="装备品质定义" sheetId="1" r:id="rId1"/>
     <sheet name="装备数值定义" sheetId="2" r:id="rId2"/>
     <sheet name="装备附加属性表" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="打造" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
   <si>
     <t>装备品质</t>
   </si>
@@ -755,6 +757,21 @@
   </si>
   <si>
     <t>装备的附加属性从此表中随机获取，每个附加属性的获取几率为1/30，获取每个属性时随机一次。</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>元宝</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>当前等级升华套装一件</t>
   </si>
 </sst>
 </file>
@@ -763,14 +780,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000%"/>
     <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -780,7 +797,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -794,8 +811,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -839,14 +863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -856,92 +873,95 @@
     </border>
   </borders>
   <cellStyleXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="8" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="8" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="警告文本" xfId="2"/>
-    <cellStyle name="适中" xfId="3"/>
+    <cellStyle name="适中" xfId="2"/>
+    <cellStyle name="警告文本" xfId="3"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="百分比" xfId="6" builtinId="5"/>
@@ -997,71 +1017,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1284,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1362,58 +1382,58 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="6" width="6.5" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="14" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="14" customWidth="1"/>
-    <col min="9" max="10" width="7.5" style="14" customWidth="1"/>
-    <col min="11" max="24" width="8.5" style="14" customWidth="1"/>
+    <col min="3" max="6" width="6.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="15" customWidth="1"/>
+    <col min="9" max="10" width="7.5" style="15" customWidth="1"/>
+    <col min="11" max="24" width="8.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:24">
-      <c r="C1" s="15">
+      <c r="C1" s="16">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16">
         <v>10</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16">
         <v>20</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16">
         <v>30</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16">
         <v>40</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16">
         <v>50</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16">
         <v>60</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16">
         <v>70</v>
       </c>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15">
-        <v>80</v>
-      </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16">
+        <v>80</v>
+      </c>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16">
         <v>90</v>
       </c>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15">
+      <c r="V1" s="16"/>
+      <c r="W1" s="16">
         <v>100</v>
       </c>
-      <c r="X1" s="15"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -1424,1510 +1444,1510 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="W5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="T6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="W6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="I7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="14" t="s">
+      <c r="O7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="14" t="s">
+      <c r="Q7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="14" t="s">
+      <c r="S7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="U7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V7" s="14" t="s">
+      <c r="U7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X7" s="14" t="s">
+      <c r="W7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="14" t="s">
+      <c r="Q8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="T8" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="14" t="s">
+      <c r="Q9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="T9" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="U9" s="14" t="s">
+      <c r="U9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="W9" s="14" t="s">
+      <c r="W9" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="M10" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="N10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="Q10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="T10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="U10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="14" t="s">
+      <c r="W10" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15" t="s">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15" t="s">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15" t="s">
+      <c r="R11" s="16"/>
+      <c r="S11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15" t="s">
+      <c r="T11" s="16"/>
+      <c r="U11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15" t="s">
+      <c r="V11" s="16"/>
+      <c r="W11" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="15"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15" t="s">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15" t="s">
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15" t="s">
+      <c r="R12" s="16"/>
+      <c r="S12" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15" t="s">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15" t="s">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15" t="s">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15" t="s">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15" t="s">
+      <c r="T13" s="16"/>
+      <c r="U13" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15" t="s">
+      <c r="V13" s="16"/>
+      <c r="W13" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="X13" s="15"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15" t="s">
+      <c r="L14" s="16"/>
+      <c r="M14" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15" t="s">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15" t="s">
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15" t="s">
+      <c r="R14" s="16"/>
+      <c r="S14" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15" t="s">
+      <c r="T14" s="16"/>
+      <c r="U14" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15" t="s">
+      <c r="V14" s="16"/>
+      <c r="W14" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="X14" s="15"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="X15" s="15"/>
+      <c r="C15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15" t="s">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15" t="s">
+      <c r="N16" s="16"/>
+      <c r="O16" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15" t="s">
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15" t="s">
+      <c r="R16" s="16"/>
+      <c r="S16" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15" t="s">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15" t="s">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15" t="s">
+      <c r="R17" s="16"/>
+      <c r="S17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15" t="s">
+      <c r="T17" s="16"/>
+      <c r="U17" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15" t="s">
+      <c r="V17" s="16"/>
+      <c r="W17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="15"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="16"/>
+      <c r="K18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15" t="s">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15" t="s">
+      <c r="N18" s="16"/>
+      <c r="O18" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15" t="s">
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15" t="s">
+      <c r="R18" s="16"/>
+      <c r="S18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15" t="s">
+      <c r="T18" s="16"/>
+      <c r="U18" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15" t="s">
+      <c r="V18" s="16"/>
+      <c r="W18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="X18" s="15"/>
+      <c r="X18" s="16"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="14" t="s">
+      <c r="G19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="14" t="s">
+      <c r="I19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="14" t="s">
+      <c r="K19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="M19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="14" t="s">
+      <c r="M19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="14" t="s">
+      <c r="O19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="Q19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="14" t="s">
+      <c r="Q19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="S19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T19" s="14" t="s">
+      <c r="S19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="U19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V19" s="14" t="s">
+      <c r="U19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="W19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X19" s="14" t="s">
+      <c r="W19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X19" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="14" t="s">
+      <c r="K20" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="M20" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="Q20" s="14" t="s">
+      <c r="Q20" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="R20" s="14" t="s">
+      <c r="R20" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="S20" s="14" t="s">
+      <c r="S20" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="T20" s="14" t="s">
+      <c r="T20" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="14" t="s">
+      <c r="Q21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="R21" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="14" t="s">
+      <c r="S21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="T21" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="U21" s="14" t="s">
+      <c r="U21" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="W21" s="14" t="s">
+      <c r="W21" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="X21" s="14" t="s">
+      <c r="X21" s="15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="N22" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="O22" s="14" t="s">
+      <c r="O22" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="P22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="Q22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="14" t="s">
+      <c r="R22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="U22" s="14" t="s">
+      <c r="U22" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="W22" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="X22" s="14" t="s">
+      <c r="X22" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="G23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="14" t="s">
+      <c r="I23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="14" t="s">
+      <c r="K23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="14" t="s">
+      <c r="M23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="O23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="14" t="s">
+      <c r="O23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="R23" s="14" t="s">
+      <c r="Q23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="S23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T23" s="14" t="s">
+      <c r="S23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="V23" s="14" t="s">
+      <c r="U23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V23" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="W23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="X23" s="14" t="s">
+      <c r="W23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X23" s="15" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="14" t="s">
+      <c r="M24" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="N24" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="O24" s="14" t="s">
+      <c r="O24" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="P24" s="14" t="s">
+      <c r="P24" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="Q24" s="14" t="s">
+      <c r="Q24" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="R24" s="14" t="s">
+      <c r="R24" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="S24" s="14" t="s">
+      <c r="S24" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="14" t="s">
+      <c r="N25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="O25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="P25" s="14" t="s">
+      <c r="P25" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="Q25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="14" t="s">
+      <c r="R25" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="T25" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="U25" s="14" t="s">
+      <c r="U25" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="W25" s="14" t="s">
+      <c r="W25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="X25" s="14" t="s">
+      <c r="X25" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="14" t="s">
+      <c r="N26" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="O26" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="Q26" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="R26" s="14" t="s">
+      <c r="R26" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T26" s="14" t="s">
+      <c r="T26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="U26" s="14" t="s">
+      <c r="U26" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="W26" s="14" t="s">
+      <c r="W26" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="X26" s="14" t="s">
+      <c r="X26" s="15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3056,585 +3076,585 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0.8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0.18</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>0.019</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>0.019</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:5">
+      <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.18</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>0.019</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.8</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>0.18</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>0.019</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:5">
+      <c r="A7" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>0.18</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>0.019</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="8" s="2" customFormat="1" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="6">
         <v>0.8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>0.18</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>0.019</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:5">
+      <c r="A9" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>0.8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.18</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>0.019</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:5">
+      <c r="A10" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>0.8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0.18</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>0.019</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:5">
+      <c r="A11" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>0.8</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>0.18</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>0.019</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:5">
+      <c r="A12" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>0.8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>0.18</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>0.019</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:5">
+      <c r="A13" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>0.8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>0.18</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>0.019</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:5">
+      <c r="A14" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>0.8</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>0.18</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>0.019</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:5">
+      <c r="A15" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>0.8</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>0.18</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>0.019</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="2:5">
-      <c r="B16" s="9" t="s">
+    <row r="16" s="4" customFormat="1" spans="2:5">
+      <c r="B16" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" spans="1:5">
-      <c r="A17" s="3" t="s">
+    <row r="17" s="5" customFormat="1" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>0.019</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" spans="1:5">
-      <c r="A18" s="3"/>
-      <c r="B18" s="10" t="s">
+    <row r="18" s="5" customFormat="1" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="1:5">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="5" customFormat="1" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>0.019</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" s="5" customFormat="1" spans="1:5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>0.8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>0.18</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>0.019</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="2" customFormat="1" spans="1:5">
+      <c r="A22" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>0.8</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>0.18</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>0.019</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="12" t="s">
+    <row r="23" s="2" customFormat="1" spans="1:5">
+      <c r="A23" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>0.8</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>0.18</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>0.019</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="12" t="s">
+    <row r="24" s="2" customFormat="1" spans="1:5">
+      <c r="A24" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>0.8</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>0.18</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>0.019</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="12" t="s">
+    <row r="25" s="2" customFormat="1" spans="1:5">
+      <c r="A25" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>0.8</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>0.18</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>0.019</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
+    <row r="26" s="2" customFormat="1" spans="1:5">
       <c r="A26" t="s">
         <v>235</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>0.8</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>0.18</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>0.019</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+    <row r="27" s="2" customFormat="1" spans="1:5">
       <c r="A27" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>0.8</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>0.18</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>0.019</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+    <row r="28" s="2" customFormat="1" spans="1:5">
       <c r="A28" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>0.8</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>0.18</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>0.019</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:5">
+    <row r="29" s="2" customFormat="1" spans="1:5">
       <c r="A29" t="s">
         <v>238</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>0.8</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>0.18</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>0.019</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:5">
+    <row r="30" s="2" customFormat="1" spans="1:5">
       <c r="A30" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="6">
         <v>0.8</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <v>0.18</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>0.019</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:5">
-      <c r="A31" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="5">
+    <row r="31" s="2" customFormat="1" spans="1:5">
+      <c r="A31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="6">
         <v>0.8</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>0.18</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>0.019</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:5">
-      <c r="A32" s="12" t="s">
+    <row r="32" s="2" customFormat="1" spans="1:5">
+      <c r="A32" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>0.8</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <v>0.18</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>0.019</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="6">
         <v>0.001</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:5">
-      <c r="A33" s="12" t="s">
+    <row r="33" s="2" customFormat="1" spans="1:5">
+      <c r="A33" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>0.8</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>0.18</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <v>0.019</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="6">
         <v>0.001</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
@@ -3914,4 +3934,265 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <f>17*15</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <f>2^1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f>2^6</f>
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f>2^8</f>
+        <v>256</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:4">
+      <c r="A1" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D1">
+        <f>A1*B1*500+C1</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:4">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D9" si="0">A2*B2*500+C2</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:4">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <f>A3*B3*500+C3</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:4">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <f>A4*B4*500+C4</f>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:4">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <f>A5*B5*500+C5</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:4">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <f>A6*B6*500+C6</f>
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <f>A7*B7*500+C7</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <f>A8*B8*500+C8</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:4">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <f>A9*B9*500+C9</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10">
+        <f>SUM(D1:D9)</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11">
+        <f>D10/1500</f>
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/DOC/装备定义表.xlsx
+++ b/DOC/装备定义表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21500" windowHeight="10920" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装备品质定义" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="251">
   <si>
     <t>装备品质</t>
   </si>
@@ -778,16 +779,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000%"/>
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -828,6 +825,12 @@
       <color indexed="60"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -872,29 +875,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,44 +896,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="8" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -956,18 +938,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="适中" xfId="2"/>
-    <cellStyle name="警告文本" xfId="3"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="百分比" xfId="6" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="7" builtinId="7"/>
-    <cellStyle name="强调文字颜色 1" xfId="8"/>
+    <cellStyle name="警告文本" xfId="2"/>
+    <cellStyle name="强调文字颜色 1" xfId="3"/>
+    <cellStyle name="适中" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1266,6 +1251,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1300,17 +1286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1364,78 +1349,76 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="26:26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="6" width="6.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="15" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="15" customWidth="1"/>
-    <col min="9" max="10" width="7.5" style="15" customWidth="1"/>
-    <col min="11" max="24" width="8.5" style="15" customWidth="1"/>
+    <col min="3" max="6" width="6.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="13" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="13" customWidth="1"/>
+    <col min="9" max="10" width="7.5" style="13" customWidth="1"/>
+    <col min="11" max="24" width="8.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24">
-      <c r="C1" s="16">
+    <row r="1" spans="1:24">
+      <c r="C1" s="14">
         <v>0</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14">
         <v>10</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14">
         <v>20</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14">
         <v>30</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14">
         <v>40</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14">
         <v>50</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14">
         <v>60</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16">
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14">
         <v>70</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16">
-        <v>80</v>
-      </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16">
+      <c r="R1" s="14"/>
+      <c r="S1" s="14">
+        <v>80</v>
+      </c>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14">
         <v>90</v>
       </c>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16">
+      <c r="V1" s="14"/>
+      <c r="W1" s="14">
         <v>100</v>
       </c>
-      <c r="X1" s="16"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="X1" s="14"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1444,1524 +1427,1598 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="17"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="17"/>
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="I7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="15" t="s">
+      <c r="M7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="15" t="s">
+      <c r="O7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="15" t="s">
+      <c r="Q7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="15" t="s">
+      <c r="S7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="U7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="V7" s="15" t="s">
+      <c r="U7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="X7" s="15" t="s">
+      <c r="W7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:24">
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="17"/>
+      <c r="A9" s="15"/>
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="V9" s="15" t="s">
+      <c r="V9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="X9" s="15" t="s">
+      <c r="X9" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="17"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="P10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="S10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="15" t="s">
+      <c r="U10" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="X10" s="15" t="s">
+      <c r="X10" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="14"/>
+      <c r="M11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16" t="s">
+      <c r="N11" s="14"/>
+      <c r="O11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16" t="s">
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16" t="s">
+      <c r="R11" s="14"/>
+      <c r="S11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16" t="s">
+      <c r="T11" s="14"/>
+      <c r="U11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16" t="s">
+      <c r="V11" s="14"/>
+      <c r="W11" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="X11" s="16"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="17"/>
+      <c r="A12" s="15"/>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16" t="s">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16" t="s">
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16" t="s">
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="17"/>
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="14"/>
+      <c r="M13" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16" t="s">
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16" t="s">
+      <c r="R13" s="14"/>
+      <c r="S13" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16" t="s">
+      <c r="T13" s="14"/>
+      <c r="U13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16" t="s">
+      <c r="V13" s="14"/>
+      <c r="W13" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="X13" s="16"/>
+      <c r="X13" s="14"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="17"/>
+      <c r="A14" s="15"/>
       <c r="B14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16" t="s">
+      <c r="L14" s="14"/>
+      <c r="M14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16" t="s">
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16" t="s">
+      <c r="R14" s="14"/>
+      <c r="S14" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16" t="s">
+      <c r="T14" s="14"/>
+      <c r="U14" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16" t="s">
+      <c r="V14" s="14"/>
+      <c r="W14" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="X14" s="16"/>
+      <c r="X14" s="14"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="X15" s="16"/>
+      <c r="C15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="17"/>
+      <c r="A16" s="15"/>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16" t="s">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16" t="s">
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16" t="s">
+      <c r="R16" s="14"/>
+      <c r="S16" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="17"/>
+      <c r="A17" s="15"/>
       <c r="B17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16" t="s">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16" t="s">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16" t="s">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16" t="s">
+      <c r="R17" s="14"/>
+      <c r="S17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16" t="s">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16" t="s">
+      <c r="V17" s="14"/>
+      <c r="W17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="X17" s="16"/>
+      <c r="X17" s="14"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="17"/>
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16" t="s">
+      <c r="L18" s="14"/>
+      <c r="M18" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16" t="s">
+      <c r="N18" s="14"/>
+      <c r="O18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16" t="s">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16" t="s">
+      <c r="R18" s="14"/>
+      <c r="S18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16" t="s">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="14"/>
+      <c r="W18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="X18" s="16"/>
+      <c r="X18" s="14"/>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="15" t="s">
+      <c r="I19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="K19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="15" t="s">
+      <c r="M19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="15" t="s">
+      <c r="O19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="Q19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" s="15" t="s">
+      <c r="Q19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="S19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="T19" s="15" t="s">
+      <c r="S19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="U19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="V19" s="15" t="s">
+      <c r="U19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="W19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="X19" s="15" t="s">
+      <c r="W19" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X19" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="17"/>
+    <row r="20" spans="1:24">
+      <c r="A20" s="15"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="M20" s="15" t="s">
+      <c r="M20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="R20" s="15" t="s">
+      <c r="R20" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="S20" s="15" t="s">
+      <c r="S20" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="17"/>
+      <c r="A21" s="15"/>
       <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="15" t="s">
+      <c r="R21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="W21" s="15" t="s">
+      <c r="W21" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="X21" s="15" t="s">
+      <c r="X21" s="13" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="17"/>
+      <c r="A22" s="15"/>
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="15" t="s">
+      <c r="K22" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="L22" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="R22" s="15" t="s">
+      <c r="R22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S22" s="15" t="s">
+      <c r="S22" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="U22" s="15" t="s">
+      <c r="U22" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="V22" s="15" t="s">
+      <c r="V22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="15" t="s">
+      <c r="W22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="X22" s="15" t="s">
+      <c r="X22" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="15" t="s">
+      <c r="I23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="15" t="s">
+      <c r="K23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="M23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="15" t="s">
+      <c r="M23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="O23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="15" t="s">
+      <c r="O23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="R23" s="15" t="s">
+      <c r="Q23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="S23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="T23" s="15" t="s">
+      <c r="S23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="U23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="V23" s="15" t="s">
+      <c r="U23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V23" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="X23" s="15" t="s">
+      <c r="W23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X23" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:24">
+      <c r="A24" s="15"/>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="S24" s="15" t="s">
+      <c r="S24" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="17"/>
+      <c r="A25" s="15"/>
       <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R25" s="15" t="s">
+      <c r="R25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S25" s="15" t="s">
+      <c r="S25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="U25" s="15" t="s">
+      <c r="U25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="V25" s="15" t="s">
+      <c r="V25" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="W25" s="15" t="s">
+      <c r="W25" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="X25" s="15" t="s">
+      <c r="X25" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="17"/>
+      <c r="A26" s="15"/>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="S26" s="15" t="s">
+      <c r="S26" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="U26" s="15" t="s">
+      <c r="U26" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="V26" s="15" t="s">
+      <c r="V26" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="X26" s="15" t="s">
+      <c r="X26" s="13" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="C11:D11"/>
@@ -2975,99 +3032,25 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
     <mergeCell ref="W11:X11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3083,15 +3066,15 @@
     <col min="18" max="18" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>204</v>
       </c>
@@ -3108,8 +3091,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" s="3" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="6">
@@ -3119,14 +3102,14 @@
         <v>0.18</v>
       </c>
       <c r="D3" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E3" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1">
+      <c r="A4" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="6">
@@ -3136,14 +3119,14 @@
         <v>0.18</v>
       </c>
       <c r="D4" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E4" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1">
+      <c r="A5" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="6">
@@ -3153,14 +3136,14 @@
         <v>0.18</v>
       </c>
       <c r="D5" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E5" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="6">
@@ -3170,14 +3153,14 @@
         <v>0.18</v>
       </c>
       <c r="D6" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E6" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:5">
-      <c r="A7" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1">
+      <c r="A7" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B7" s="6">
@@ -3187,14 +3170,14 @@
         <v>0.18</v>
       </c>
       <c r="D7" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E7" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" spans="1:5">
-      <c r="A8" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1">
+      <c r="A8" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="6">
@@ -3204,14 +3187,14 @@
         <v>0.18</v>
       </c>
       <c r="D8" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E8" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:5">
-      <c r="A9" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1">
+      <c r="A9" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B9" s="6">
@@ -3221,14 +3204,14 @@
         <v>0.18</v>
       </c>
       <c r="D9" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E9" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:5">
-      <c r="A10" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1">
+      <c r="A10" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B10" s="6">
@@ -3238,14 +3221,14 @@
         <v>0.18</v>
       </c>
       <c r="D10" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E10" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:5">
-      <c r="A11" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1">
+      <c r="A11" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B11" s="6">
@@ -3255,14 +3238,14 @@
         <v>0.18</v>
       </c>
       <c r="D11" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E11" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:5">
-      <c r="A12" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1">
+      <c r="A12" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B12" s="6">
@@ -3272,14 +3255,14 @@
         <v>0.18</v>
       </c>
       <c r="D12" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E12" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:5">
-      <c r="A13" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1">
+      <c r="A13" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B13" s="6">
@@ -3289,14 +3272,14 @@
         <v>0.18</v>
       </c>
       <c r="D13" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E13" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:5">
-      <c r="A14" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1">
+      <c r="A14" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B14" s="6">
@@ -3306,14 +3289,14 @@
         <v>0.18</v>
       </c>
       <c r="D14" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E14" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:5">
-      <c r="A15" s="9" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1">
+      <c r="A15" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B15" s="6">
@@ -3323,77 +3306,77 @@
         <v>0.18</v>
       </c>
       <c r="D15" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E15" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="2:5">
-      <c r="B16" s="10" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1">
+      <c r="B16" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:5">
+    <row r="17" spans="1:5" s="5" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D17" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E17" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:5">
+    <row r="19" spans="1:5" s="5" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>221</v>
       </c>
       <c r="D19" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E19" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="1:5">
-      <c r="A20" s="12"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1">
+      <c r="A20" s="11"/>
       <c r="B20" s="6" t="s">
         <v>215</v>
       </c>
@@ -3407,8 +3390,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:5" s="2" customFormat="1">
+      <c r="A21" s="12" t="s">
         <v>230</v>
       </c>
       <c r="B21" s="6">
@@ -3418,14 +3401,14 @@
         <v>0.18</v>
       </c>
       <c r="D21" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E21" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="13" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1">
+      <c r="A22" s="12" t="s">
         <v>231</v>
       </c>
       <c r="B22" s="6">
@@ -3435,14 +3418,14 @@
         <v>0.18</v>
       </c>
       <c r="D22" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E22" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:5">
-      <c r="A23" s="13" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1">
+      <c r="A23" s="12" t="s">
         <v>232</v>
       </c>
       <c r="B23" s="6">
@@ -3452,14 +3435,14 @@
         <v>0.18</v>
       </c>
       <c r="D23" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E23" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:5">
-      <c r="A24" s="13" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1">
+      <c r="A24" s="12" t="s">
         <v>233</v>
       </c>
       <c r="B24" s="6">
@@ -3469,14 +3452,14 @@
         <v>0.18</v>
       </c>
       <c r="D24" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E24" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:5">
-      <c r="A25" s="13" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1">
+      <c r="A25" s="12" t="s">
         <v>234</v>
       </c>
       <c r="B25" s="6">
@@ -3486,13 +3469,13 @@
         <v>0.18</v>
       </c>
       <c r="D25" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E25" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" t="s">
         <v>235</v>
       </c>
@@ -3503,13 +3486,13 @@
         <v>0.18</v>
       </c>
       <c r="D26" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E26" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -3520,13 +3503,13 @@
         <v>0.18</v>
       </c>
       <c r="D27" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E27" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" t="s">
         <v>237</v>
       </c>
@@ -3537,13 +3520,13 @@
         <v>0.18</v>
       </c>
       <c r="D28" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E28" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" t="s">
         <v>238</v>
       </c>
@@ -3554,13 +3537,13 @@
         <v>0.18</v>
       </c>
       <c r="D29" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E29" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -3571,14 +3554,14 @@
         <v>0.18</v>
       </c>
       <c r="D30" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E30" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:5">
-      <c r="A31" s="13" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1">
+      <c r="A31" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B31" s="6">
@@ -3588,14 +3571,14 @@
         <v>0.18</v>
       </c>
       <c r="D31" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E31" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:5">
-      <c r="A32" s="13" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1">
+      <c r="A32" s="12" t="s">
         <v>240</v>
       </c>
       <c r="B32" s="6">
@@ -3605,14 +3588,14 @@
         <v>0.18</v>
       </c>
       <c r="D32" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E32" s="6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:5">
-      <c r="A33" s="13" t="s">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="2" customFormat="1">
+      <c r="A33" s="12" t="s">
         <v>241</v>
       </c>
       <c r="B33" s="6">
@@ -3622,46 +3605,46 @@
         <v>0.18</v>
       </c>
       <c r="D33" s="6">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E33" s="6">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>245</v>
       </c>
@@ -3672,15 +3655,15 @@
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A36:J36"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3732,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I15" si="0">H2*100000</f>
+        <f t="shared" ref="I2" si="0">H2*100000</f>
         <v>200000</v>
       </c>
     </row>
@@ -3747,11 +3730,11 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H15" si="1">2^(A3-1)</f>
+        <f t="shared" ref="H3" si="1">2^(A3-1)</f>
         <v>4</v>
       </c>
       <c r="I3">
-        <f>H3*100000</f>
+        <f t="shared" ref="I3:I15" si="2">H3*100000</f>
         <v>400000</v>
       </c>
     </row>
@@ -3766,11 +3749,11 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <f>2^(A4-1)</f>
+        <f t="shared" ref="H4:H15" si="3">2^(A4-1)</f>
         <v>8</v>
       </c>
       <c r="I4">
-        <f>H4*100000</f>
+        <f t="shared" si="2"/>
         <v>800000</v>
       </c>
     </row>
@@ -3785,11 +3768,11 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <f>2^(A5-1)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I5">
-        <f>H5*100000</f>
+        <f t="shared" si="2"/>
         <v>1600000</v>
       </c>
     </row>
@@ -3804,11 +3787,11 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <f>2^(A6-1)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="I6">
-        <f>H6*100000</f>
+        <f t="shared" si="2"/>
         <v>3200000</v>
       </c>
     </row>
@@ -3817,11 +3800,11 @@
         <v>7</v>
       </c>
       <c r="H7">
-        <f>2^(A7-1)</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="I7">
-        <f>H7*100000</f>
+        <f t="shared" si="2"/>
         <v>6400000</v>
       </c>
     </row>
@@ -3830,11 +3813,11 @@
         <v>8</v>
       </c>
       <c r="H8">
-        <f>2^(A8-1)</f>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="I8">
-        <f>H8*100000</f>
+        <f t="shared" si="2"/>
         <v>12800000</v>
       </c>
     </row>
@@ -3843,11 +3826,11 @@
         <v>9</v>
       </c>
       <c r="H9">
-        <f>2^(A9-1)</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="I9">
-        <f>H9*100000</f>
+        <f t="shared" si="2"/>
         <v>25600000</v>
       </c>
     </row>
@@ -3856,11 +3839,11 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <f>2^(A10-1)</f>
+        <f t="shared" si="3"/>
         <v>512</v>
       </c>
       <c r="I10">
-        <f>H10*100000</f>
+        <f t="shared" si="2"/>
         <v>51200000</v>
       </c>
     </row>
@@ -3869,11 +3852,11 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <f>2^(A11-1)</f>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="I11">
-        <f>H11*100000</f>
+        <f t="shared" si="2"/>
         <v>102400000</v>
       </c>
     </row>
@@ -3882,11 +3865,11 @@
         <v>12</v>
       </c>
       <c r="H12">
-        <f>2^(A12-1)</f>
+        <f t="shared" si="3"/>
         <v>2048</v>
       </c>
       <c r="I12">
-        <f>H12*100000</f>
+        <f t="shared" si="2"/>
         <v>204800000</v>
       </c>
     </row>
@@ -3895,11 +3878,11 @@
         <v>13</v>
       </c>
       <c r="H13">
-        <f>2^(A13-1)</f>
+        <f t="shared" si="3"/>
         <v>4096</v>
       </c>
       <c r="I13">
-        <f>H13*100000</f>
+        <f t="shared" si="2"/>
         <v>409600000</v>
       </c>
     </row>
@@ -3908,11 +3891,11 @@
         <v>14</v>
       </c>
       <c r="H14">
-        <f>2^(A14-1)</f>
+        <f t="shared" si="3"/>
         <v>8192</v>
       </c>
       <c r="I14">
-        <f>H14*100000</f>
+        <f t="shared" si="2"/>
         <v>819200000</v>
       </c>
     </row>
@@ -3921,57 +3904,57 @@
         <v>15</v>
       </c>
       <c r="H15">
-        <f>2^(A15-1)</f>
+        <f t="shared" si="3"/>
         <v>16384</v>
       </c>
       <c r="I15">
-        <f>H15*100000</f>
+        <f t="shared" si="2"/>
         <v>1638400000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1">
         <f>17*15</f>
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2">
         <f>2^1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3">
         <f>2^2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4">
         <f>2^3</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>2^4</f>
         <v>16</v>
@@ -4026,24 +4009,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -4058,7 +4041,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -4069,11 +4052,11 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">A2*B2*500+C2</f>
+        <f t="shared" ref="D2" si="0">A2*B2*500+C2</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -4084,11 +4067,11 @@
         <v>1000</v>
       </c>
       <c r="D3">
-        <f>A3*B3*500+C3</f>
+        <f t="shared" ref="D3:D9" si="1">A3*B3*500+C3</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:4">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -4099,11 +4082,11 @@
         <v>1000</v>
       </c>
       <c r="D4">
-        <f>A4*B4*500+C4</f>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:4">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -4114,11 +4097,11 @@
         <v>1000</v>
       </c>
       <c r="D5">
-        <f>A5*B5*500+C5</f>
+        <f t="shared" si="1"/>
         <v>16000</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:4">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4129,11 +4112,11 @@
         <v>1000</v>
       </c>
       <c r="D6">
-        <f>A6*B6*500+C6</f>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:4">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4144,11 +4127,11 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <f>A7*B7*500+C7</f>
+        <f t="shared" si="1"/>
         <v>22000</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:4">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4159,11 +4142,11 @@
         <v>1000</v>
       </c>
       <c r="D8">
-        <f>A8*B8*500+C8</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:4">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4174,24 +4157,25 @@
         <v>1000</v>
       </c>
       <c r="D9">
-        <f>A9*B9*500+C9</f>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:4">
       <c r="D10">
         <f>SUM(D1:D9)</f>
         <v>144000</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="1:4">
       <c r="D11">
         <f>D10/1500</f>
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
